--- a/shigoto IT/keigo.xlsx
+++ b/shigoto IT/keigo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\nihongo\shigoto IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,10 +15,10 @@
     <sheet name="keigo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">keigo!$B$1:$E$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">keigo!$B$1:$E$266</definedName>
     <definedName name="敬語" localSheetId="0">keigo!$B:$F</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="512">
   <si>
     <t>あげる</t>
   </si>
@@ -261,10 +261,6 @@
   </si>
   <si>
     <t>なさる</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>いただく</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -1437,9 +1433,6 @@
     <t>おたべになる</t>
   </si>
   <si>
-    <t>おあがりになる</t>
-  </si>
-  <si>
     <t>おやすみになる</t>
   </si>
   <si>
@@ -1957,6 +1950,42 @@
   </si>
   <si>
     <t>Stt</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>いただく</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>戴く</t>
+    <rPh sb="0" eb="1">
+      <t>いただ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>飲む</t>
+    <rPh sb="0" eb="1">
+      <t>の</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>飲みます</t>
+    <rPh sb="0" eb="1">
+      <t>の</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>のみます</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>下さる</t>
+    <rPh sb="0" eb="1">
+      <t>くだ</t>
+    </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
 </sst>
@@ -2297,11 +2326,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2313,13 +2340,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
         <v>51</v>
@@ -2336,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -2353,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -2370,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>511</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2387,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2404,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -2421,13 +2448,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2441,7 +2468,7 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -2458,7 +2485,7 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -2475,7 +2502,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -2489,13 +2516,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -2503,16 +2530,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" t="s">
         <v>451</v>
       </c>
-      <c r="C12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" t="s">
-        <v>453</v>
-      </c>
       <c r="E12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -2520,16 +2547,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" t="s">
         <v>439</v>
       </c>
-      <c r="C13" t="s">
-        <v>440</v>
-      </c>
-      <c r="D13" t="s">
-        <v>441</v>
-      </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -2537,16 +2564,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14" t="s">
         <v>448</v>
       </c>
-      <c r="C14" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" t="s">
-        <v>450</v>
-      </c>
       <c r="E14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -2554,16 +2581,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" t="s">
         <v>454</v>
       </c>
-      <c r="C15" t="s">
-        <v>455</v>
-      </c>
-      <c r="D15" t="s">
-        <v>456</v>
-      </c>
       <c r="E15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -2571,16 +2598,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" t="s">
         <v>445</v>
       </c>
-      <c r="C16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D16" t="s">
-        <v>447</v>
-      </c>
       <c r="E16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -2594,7 +2621,7 @@
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -2611,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -2628,7 +2655,7 @@
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -2642,13 +2669,13 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -2659,13 +2686,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -2673,16 +2700,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22" t="s">
         <v>460</v>
       </c>
-      <c r="C22" t="s">
-        <v>461</v>
-      </c>
-      <c r="D22" t="s">
-        <v>462</v>
-      </c>
       <c r="E22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -2690,16 +2717,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C23" t="s">
+        <v>455</v>
+      </c>
+      <c r="D23" t="s">
         <v>457</v>
       </c>
-      <c r="D23" t="s">
-        <v>459</v>
-      </c>
       <c r="E23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -2707,16 +2734,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D24" t="s">
         <v>442</v>
       </c>
-      <c r="C24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D24" t="s">
-        <v>444</v>
-      </c>
       <c r="E24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -2724,16 +2751,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -2741,13 +2768,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>506</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -2758,16 +2785,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -2775,16 +2799,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -2792,16 +2816,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>509</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>510</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -2809,13 +2833,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -2826,13 +2850,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -2843,16 +2867,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -2860,16 +2884,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D33" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -2877,16 +2901,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>488</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -2894,16 +2918,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>464</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>465</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -2911,16 +2935,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -2928,13 +2952,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>430</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
         <v>47</v>
@@ -2945,16 +2969,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -2962,16 +2986,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>430</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -2979,16 +3003,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>430</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>431</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -2996,16 +3020,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="C41" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="D41" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="E41" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -3013,16 +3037,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C42" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D42" t="s">
-        <v>479</v>
+        <v>367</v>
       </c>
       <c r="E42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -3030,16 +3054,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>461</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>463</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -3047,13 +3071,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -3064,13 +3088,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>428</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -3081,16 +3105,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>428</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -3098,16 +3122,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -3115,16 +3139,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -3132,16 +3156,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>493</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>468</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>469</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -3149,16 +3173,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>497</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -3166,13 +3190,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -3183,16 +3207,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -3200,13 +3224,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
@@ -3217,13 +3241,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
@@ -3234,16 +3258,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -3251,16 +3275,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -3268,16 +3292,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -3285,16 +3309,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -3302,13 +3326,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
@@ -3319,13 +3343,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
@@ -3336,16 +3360,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -3353,16 +3377,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -3370,13 +3394,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
         <v>1</v>
@@ -3387,13 +3411,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
@@ -3404,13 +3428,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
@@ -3421,16 +3445,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -3438,13 +3462,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E67" t="s">
         <v>47</v>
@@ -3455,16 +3479,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -3472,16 +3496,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>474</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -3489,16 +3513,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -3506,16 +3530,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -3523,13 +3547,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
         <v>47</v>
@@ -3540,13 +3564,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
@@ -3557,16 +3581,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E74" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -3574,16 +3598,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -3591,13 +3615,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
         <v>47</v>
@@ -3608,16 +3632,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>495</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>472</v>
       </c>
       <c r="D77" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -3625,16 +3649,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -3642,13 +3666,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
         <v>1</v>
@@ -3659,13 +3683,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -3676,16 +3700,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -3693,13 +3717,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E82" t="s">
         <v>47</v>
@@ -3710,16 +3734,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -3727,10 +3751,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>296</v>
       </c>
       <c r="E84" t="s">
         <v>1</v>
@@ -3741,13 +3768,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E85" t="s">
         <v>1</v>
@@ -3758,16 +3785,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -3775,13 +3802,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
@@ -3792,16 +3819,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E88" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -3809,13 +3836,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E89" t="s">
         <v>47</v>
@@ -3826,16 +3853,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
-      </c>
-      <c r="D90" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -3843,16 +3867,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -3860,16 +3884,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -3877,16 +3901,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -3894,16 +3918,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E94" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -3911,16 +3935,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E95" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -3931,10 +3955,10 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E96" t="s">
         <v>1</v>
@@ -3948,13 +3972,13 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -3962,16 +3986,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -3979,13 +4003,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E99" t="s">
         <v>47</v>
@@ -3996,13 +4020,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E100" t="s">
         <v>47</v>
@@ -4013,16 +4037,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -4030,16 +4054,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="E102" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -4047,16 +4071,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E103" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -4064,16 +4088,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D104" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -4081,13 +4105,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D105" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E105" t="s">
         <v>47</v>
@@ -4098,16 +4122,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -4115,13 +4139,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="E107" t="s">
         <v>1</v>
@@ -4132,16 +4156,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -4149,16 +4173,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -4166,13 +4190,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E110" t="s">
         <v>47</v>
@@ -4183,16 +4207,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="E111" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
@@ -4200,13 +4224,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="D112" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E112" t="s">
         <v>47</v>
@@ -4217,16 +4241,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D113" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -4234,13 +4258,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E114" t="s">
         <v>47</v>
@@ -4251,16 +4275,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E115" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -4268,16 +4292,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E116" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -4285,13 +4309,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="E117" t="s">
         <v>1</v>
@@ -4302,16 +4326,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -4319,13 +4343,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D119" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="E119" t="s">
         <v>47</v>
@@ -4336,16 +4360,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -4353,16 +4377,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D121" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -4370,16 +4394,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D122" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -4387,16 +4411,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -4404,16 +4428,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D124" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E124" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -4421,16 +4445,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E125" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -4438,16 +4462,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E126" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -4458,10 +4482,10 @@
         <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E127" t="s">
         <v>1</v>
@@ -4475,13 +4499,13 @@
         <v>22</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -4492,10 +4516,10 @@
         <v>22</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E129" t="s">
         <v>48</v>
@@ -4509,13 +4533,13 @@
         <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D130" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -4526,10 +4550,10 @@
         <v>22</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="E131" t="s">
         <v>48</v>
@@ -4540,16 +4564,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>503</v>
+        <v>22</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
+        <v>152</v>
       </c>
       <c r="D132" t="s">
-        <v>487</v>
+        <v>370</v>
       </c>
       <c r="E132" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
@@ -4557,13 +4581,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D133" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E133" t="s">
         <v>47</v>
@@ -4574,13 +4598,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D134" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
@@ -4591,16 +4615,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D135" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -4608,13 +4632,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D136" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="E136" t="s">
         <v>1</v>
@@ -4625,16 +4649,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D137" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -4642,16 +4666,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D138" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -4659,16 +4683,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D139" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="E139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -4676,16 +4700,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>501</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="D140" t="s">
-        <v>380</v>
+        <v>485</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -4693,16 +4717,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D141" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E141" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -4710,16 +4734,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D142" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -4727,16 +4751,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -4744,16 +4768,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -4761,16 +4785,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D145" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -4778,13 +4802,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D146" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E146" t="s">
         <v>47</v>
@@ -4795,16 +4819,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="D147" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="E147" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -4812,13 +4836,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="E148" t="s">
         <v>1</v>
@@ -4829,13 +4853,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="E149" t="s">
         <v>1</v>
@@ -4846,13 +4870,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E150" t="s">
         <v>48</v>
@@ -4863,16 +4887,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D151" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -4880,16 +4904,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>494</v>
+        <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>468</v>
+        <v>67</v>
       </c>
       <c r="D152" t="s">
-        <v>469</v>
+        <v>261</v>
       </c>
       <c r="E152" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
@@ -4897,13 +4921,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>262</v>
       </c>
       <c r="E153" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
@@ -4911,16 +4938,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D154" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -4928,13 +4955,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="D155" t="s">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="E155" t="s">
         <v>47</v>
@@ -4945,16 +4972,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D156" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -4962,16 +4989,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D157" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E157" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
@@ -4979,16 +5006,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D158" t="s">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="E158" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
@@ -4996,16 +5023,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D159" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -5013,16 +5040,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>26</v>
+        <v>492</v>
       </c>
       <c r="C160" t="s">
-        <v>177</v>
+        <v>466</v>
       </c>
       <c r="D160" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
       <c r="E160" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -5033,13 +5060,10 @@
         <v>26</v>
       </c>
       <c r="C161" t="s">
-        <v>178</v>
-      </c>
-      <c r="D161" t="s">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
@@ -5047,16 +5071,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D162" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
@@ -5064,16 +5088,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D163" t="s">
-        <v>265</v>
+        <v>382</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
@@ -5081,13 +5105,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D164" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E164" t="s">
         <v>1</v>
@@ -5098,16 +5122,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D165" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E165" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
@@ -5115,16 +5139,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D166" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E166" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
@@ -5132,13 +5156,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D167" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="E167" t="s">
         <v>1</v>
@@ -5149,16 +5173,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D168" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="E168" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
@@ -5166,16 +5190,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D169" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
@@ -5183,16 +5207,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="D170" t="s">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="E170" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
@@ -5200,16 +5224,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="D171" t="s">
-        <v>392</v>
+        <v>506</v>
       </c>
       <c r="E171" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
@@ -5217,16 +5241,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>189</v>
-      </c>
-      <c r="D172" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="E172" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
@@ -5234,16 +5255,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D173" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
@@ -5251,13 +5272,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D174" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="E174" t="s">
         <v>1</v>
@@ -5268,16 +5289,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>505</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>489</v>
+        <v>184</v>
       </c>
       <c r="D175" t="s">
-        <v>490</v>
+        <v>343</v>
       </c>
       <c r="E175" t="s">
-        <v>435</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
@@ -5285,16 +5306,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D176" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
@@ -5302,16 +5323,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D177" t="s">
-        <v>394</v>
+        <v>264</v>
       </c>
       <c r="E177" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
@@ -5319,16 +5340,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>498</v>
       </c>
       <c r="C178" t="s">
-        <v>193</v>
+        <v>478</v>
       </c>
       <c r="D178" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="E178" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
@@ -5336,13 +5357,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D179" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E179" t="s">
         <v>1</v>
@@ -5353,16 +5374,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
@@ -5370,13 +5391,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D181" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="E181" t="s">
         <v>47</v>
@@ -5387,13 +5408,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="D182" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="E182" t="s">
         <v>47</v>
@@ -5404,16 +5425,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="C183" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
       <c r="D183" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -5421,13 +5442,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D184" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E184" t="s">
         <v>1</v>
@@ -5438,13 +5459,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D185" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E185" t="s">
         <v>1</v>
@@ -5455,16 +5476,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C186" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D186" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E186" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
@@ -5472,13 +5493,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C187" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D187" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="E187" t="s">
         <v>1</v>
@@ -5489,13 +5510,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D188" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="E188" t="s">
         <v>48</v>
@@ -5509,13 +5530,13 @@
         <v>30</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D189" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="E189" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
@@ -5523,16 +5544,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D190" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
@@ -5540,13 +5561,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D191" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E191" t="s">
         <v>1</v>
@@ -5557,13 +5578,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D192" t="s">
-        <v>404</v>
+        <v>266</v>
       </c>
       <c r="E192" t="s">
         <v>47</v>
@@ -5574,13 +5595,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C193" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="D193" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="E193" t="s">
         <v>47</v>
@@ -5591,16 +5612,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D194" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="E194" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
@@ -5608,16 +5629,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="E195" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.4">
@@ -5625,13 +5646,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D196" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E196" t="s">
         <v>1</v>
@@ -5642,13 +5663,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D197" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E197" t="s">
         <v>48</v>
@@ -5659,16 +5680,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>493</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>466</v>
+        <v>202</v>
       </c>
       <c r="D198" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="E198" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.4">
@@ -5676,13 +5697,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D199" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E199" t="s">
         <v>47</v>
@@ -5693,13 +5714,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D200" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="E200" t="s">
         <v>1</v>
@@ -5710,16 +5731,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D201" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E201" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.4">
@@ -5727,16 +5748,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D202" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E202" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.4">
@@ -5744,16 +5765,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D203" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.4">
@@ -5761,16 +5782,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C204" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D204" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="E204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.4">
@@ -5778,13 +5799,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D205" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="E205" t="s">
         <v>1</v>
@@ -5795,16 +5816,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>491</v>
       </c>
       <c r="C206" t="s">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="D206" t="s">
-        <v>358</v>
+        <v>465</v>
       </c>
       <c r="E206" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.4">
@@ -5812,16 +5833,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C207" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D207" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E207" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.4">
@@ -5829,16 +5850,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>506</v>
+        <v>33</v>
       </c>
       <c r="C208" t="s">
-        <v>491</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>492</v>
+        <v>354</v>
       </c>
       <c r="E208" t="s">
-        <v>435</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
@@ -5846,16 +5867,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D209" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
@@ -5863,16 +5884,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D210" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="E210" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
@@ -5880,16 +5901,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C211" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D211" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="E211" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
@@ -5897,13 +5918,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C212" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E212" t="s">
         <v>1</v>
@@ -5914,13 +5935,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C213" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="E213" t="s">
         <v>1</v>
@@ -5931,16 +5952,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C214" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D214" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="E214" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
@@ -5948,16 +5969,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.4">
@@ -5965,13 +5986,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="C216" t="s">
-        <v>74</v>
+        <v>489</v>
+      </c>
+      <c r="D216" t="s">
+        <v>490</v>
       </c>
       <c r="E216" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
@@ -5979,16 +6003,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D217" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E217" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
@@ -5996,13 +6020,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C218" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E218" t="s">
         <v>1</v>
@@ -6013,16 +6037,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D219" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="E219" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
@@ -6030,16 +6054,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D220" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.4">
@@ -6047,16 +6071,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C221" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="D221" t="s">
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="E221" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.4">
@@ -6064,16 +6088,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D222" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="E222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
@@ -6081,16 +6105,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C223" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D223" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E223" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
@@ -6098,13 +6122,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>232</v>
-      </c>
-      <c r="D224" t="s">
-        <v>419</v>
+        <v>73</v>
       </c>
       <c r="E224" t="s">
         <v>1</v>
@@ -6115,16 +6136,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C225" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D225" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="E225" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.4">
@@ -6132,16 +6153,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C226" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D226" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="E226" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.4">
@@ -6149,16 +6170,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C227" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D227" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.4">
@@ -6166,16 +6187,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D228" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.4">
@@ -6183,13 +6204,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D229" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E229" t="s">
         <v>47</v>
@@ -6200,16 +6221,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D230" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E230" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.4">
@@ -6217,10 +6238,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="D231" t="s">
         <v>320</v>
@@ -6234,13 +6255,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D232" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="E232" t="s">
         <v>47</v>
@@ -6251,16 +6272,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="D233" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="E233" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.4">
@@ -6268,16 +6289,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D234" t="s">
-        <v>46</v>
+        <v>362</v>
       </c>
       <c r="E234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.4">
@@ -6291,10 +6312,10 @@
         <v>237</v>
       </c>
       <c r="D235" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="E235" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.4">
@@ -6305,13 +6326,13 @@
         <v>39</v>
       </c>
       <c r="C236" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D236" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="E236" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.4">
@@ -6322,13 +6343,13 @@
         <v>39</v>
       </c>
       <c r="C237" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D237" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="E237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.4">
@@ -6336,16 +6357,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>502</v>
+        <v>39</v>
       </c>
       <c r="C238" t="s">
-        <v>484</v>
+        <v>240</v>
       </c>
       <c r="D238" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="E238" t="s">
-        <v>435</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.4">
@@ -6353,16 +6374,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>498</v>
+        <v>39</v>
       </c>
       <c r="C239" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="D239" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="E239" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.4">
@@ -6370,13 +6391,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C240" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="D240" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="E240" t="s">
         <v>47</v>
@@ -6387,16 +6408,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C241" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D241" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="E241" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.4">
@@ -6404,13 +6425,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C242" t="s">
-        <v>53</v>
+        <v>135</v>
+      </c>
+      <c r="D242" t="s">
+        <v>320</v>
       </c>
       <c r="E242" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.4">
@@ -6418,16 +6442,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C243" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="D243" t="s">
-        <v>368</v>
+        <v>46</v>
       </c>
       <c r="E243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.4">
@@ -6435,13 +6459,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C244" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D244" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E244" t="s">
         <v>48</v>
@@ -6452,16 +6476,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C245" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D245" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="E245" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
@@ -6469,16 +6493,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="C246" t="s">
-        <v>250</v>
+        <v>482</v>
       </c>
       <c r="D246" t="s">
-        <v>321</v>
+        <v>483</v>
       </c>
       <c r="E246" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
@@ -6486,13 +6510,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="C247" t="s">
-        <v>58</v>
+        <v>474</v>
+      </c>
+      <c r="D247" t="s">
+        <v>475</v>
       </c>
       <c r="E247" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
@@ -6500,13 +6527,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C248" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="D248" t="s">
+        <v>367</v>
       </c>
       <c r="E248" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
@@ -6514,13 +6544,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C249" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="D249" t="s">
-        <v>319</v>
+        <v>423</v>
       </c>
       <c r="E249" t="s">
         <v>1</v>
@@ -6531,13 +6561,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C250" t="s">
-        <v>249</v>
+        <v>511</v>
       </c>
       <c r="D250" t="s">
-        <v>426</v>
+        <v>53</v>
       </c>
       <c r="E250" t="s">
         <v>1</v>
@@ -6548,16 +6578,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C251" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="D251" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="E251" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -6565,13 +6595,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C252" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D252" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="E252" t="s">
         <v>48</v>
@@ -6582,16 +6612,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="C253" t="s">
-        <v>472</v>
-      </c>
-      <c r="D253" t="s">
-        <v>473</v>
+        <v>58</v>
       </c>
       <c r="E253" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -6599,16 +6626,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C254" t="s">
-        <v>252</v>
-      </c>
-      <c r="D254" t="s">
-        <v>427</v>
+        <v>59</v>
       </c>
       <c r="E254" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -6616,13 +6640,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C255" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="D255" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="E255" t="s">
         <v>1</v>
@@ -6633,13 +6657,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C256" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D256" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E256" t="s">
         <v>1</v>
@@ -6650,16 +6674,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C257" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D257" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="E257" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -6667,22 +6691,158 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="C258" t="s">
-        <v>482</v>
+        <v>241</v>
       </c>
       <c r="D258" t="s">
-        <v>483</v>
+        <v>319</v>
       </c>
       <c r="E258" t="s">
-        <v>435</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259" t="s">
+        <v>249</v>
+      </c>
+      <c r="D259" t="s">
+        <v>320</v>
+      </c>
+      <c r="E259" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" t="s">
+        <v>250</v>
+      </c>
+      <c r="D260" t="s">
+        <v>351</v>
+      </c>
+      <c r="E260" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>494</v>
+      </c>
+      <c r="C261" t="s">
+        <v>470</v>
+      </c>
+      <c r="D261" t="s">
+        <v>471</v>
+      </c>
+      <c r="E261" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>42</v>
+      </c>
+      <c r="C262" t="s">
+        <v>223</v>
+      </c>
+      <c r="D262" t="s">
+        <v>411</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>42</v>
+      </c>
+      <c r="C263" t="s">
+        <v>251</v>
+      </c>
+      <c r="D263" t="s">
+        <v>425</v>
+      </c>
+      <c r="E263" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>42</v>
+      </c>
+      <c r="C264" t="s">
+        <v>252</v>
+      </c>
+      <c r="D264" t="s">
+        <v>426</v>
+      </c>
+      <c r="E264" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>42</v>
+      </c>
+      <c r="C265" t="s">
+        <v>253</v>
+      </c>
+      <c r="D265" t="s">
+        <v>427</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>499</v>
+      </c>
+      <c r="C266" t="s">
+        <v>480</v>
+      </c>
+      <c r="D266" t="s">
+        <v>481</v>
+      </c>
+      <c r="E266" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E233">
-    <sortState ref="B2:E1048576">
-      <sortCondition ref="B1:B233"/>
+  <autoFilter ref="B1:E266">
+    <sortState ref="B2:E266">
+      <sortCondition ref="B1:B266"/>
     </sortState>
   </autoFilter>
   <sortState ref="B1:E258">
